--- a/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__4_BOM.xlsx
+++ b/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__4_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="379">
   <si>
     <t>No.</t>
   </si>
@@ -67,1039 +67,1078 @@
     <t>1</t>
   </si>
   <si>
-    <t>BWGNSCNX20-20W4</t>
-  </si>
-  <si>
-    <t>ANT1</t>
-  </si>
-  <si>
-    <t>ANT-TH_BWGNSCNX20-20W4</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>EEEHAV101XAP</t>
+  </si>
+  <si>
+    <t>C1,C2</t>
+  </si>
+  <si>
+    <t>CAP-SMD_BD6.3-L6.6-W6.6-FD</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>PANASONIC(松下)</t>
+  </si>
+  <si>
+    <t>C336789</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>BATWIRELESS(蝙蝠无线)</t>
-  </si>
-  <si>
-    <t>C784396</t>
-  </si>
-  <si>
-    <t>LCSC</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Radio Frequency Chip/Antenna</t>
-  </si>
-  <si>
-    <t>Antennas</t>
-  </si>
-  <si>
-    <t>1521</t>
-  </si>
-  <si>
-    <t>4.26</t>
+    <t>303</t>
+  </si>
+  <si>
+    <t>1.386</t>
+  </si>
+  <si>
+    <t>Extended Part</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>C11,C21,C100</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>YAGEO(国巨)</t>
+  </si>
+  <si>
+    <t>C14663</t>
+  </si>
+  <si>
+    <t>43337143</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>Basic Part</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>C12,C13,C22,C23,C94,C99</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>SAMSUNG(三星)</t>
+  </si>
+  <si>
+    <t>C13585</t>
+  </si>
+  <si>
+    <t>5013905</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>CL05B104KO5NNNC</t>
+  </si>
+  <si>
+    <t>C14,C24,C42,C43,C95</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>C1525</t>
+  </si>
+  <si>
+    <t>24459228</t>
+  </si>
+  <si>
+    <t>0.00736</t>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC</t>
+  </si>
+  <si>
+    <t>C15,C25,C41</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C52923</t>
+  </si>
+  <si>
+    <t>4835064</t>
+  </si>
+  <si>
+    <t>0.0206</t>
+  </si>
+  <si>
+    <t>CL10B474KA8NNNC</t>
+  </si>
+  <si>
+    <t>C16,C26</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>C1623</t>
+  </si>
+  <si>
+    <t>482188</t>
+  </si>
+  <si>
+    <t>0.0457</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CL21B224KBFNNNE</t>
+  </si>
+  <si>
+    <t>C17,C27</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C5378</t>
+  </si>
+  <si>
+    <t>389300</t>
+  </si>
+  <si>
+    <t>0.0686</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNE</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>4606281</t>
+  </si>
+  <si>
+    <t>0.0587</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>CL21A226MAQNNNE</t>
+  </si>
+  <si>
+    <t>C96,C97</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C45783</t>
+  </si>
+  <si>
+    <t>5024398</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>CL10C101JB8NNNC</t>
+  </si>
+  <si>
+    <t>C98</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C14858</t>
+  </si>
+  <si>
+    <t>2182664</t>
+  </si>
+  <si>
+    <t>0.0174</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>CL10A106KP8NNNC</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>C19702</t>
+  </si>
+  <si>
+    <t>Capacitors</t>
+  </si>
+  <si>
+    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT</t>
+  </si>
+  <si>
+    <t>5121681</t>
+  </si>
+  <si>
+    <t>0.0366</t>
+  </si>
+  <si>
+    <t>BasicPart</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>USB_C</t>
+  </si>
+  <si>
+    <t>CN41</t>
+  </si>
+  <si>
+    <t>USB-C-SMD_TYPE-C-USB-18</t>
+  </si>
+  <si>
+    <t>105450-0101</t>
+  </si>
+  <si>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>C134092</t>
+  </si>
+  <si>
+    <t>6367</t>
+  </si>
+  <si>
+    <t>4.43</t>
   </si>
   <si>
     <t>ExtendedPart</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>EEEHAV101XAP</t>
-  </si>
-  <si>
-    <t>C1,C2</t>
-  </si>
-  <si>
-    <t>CAP-SMD_BD6.3-L6.6-W6.6-FD</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>PANASONIC(松下)</t>
-  </si>
-  <si>
-    <t>C336789</t>
-  </si>
-  <si>
-    <t>1244</t>
-  </si>
-  <si>
-    <t>1.386</t>
-  </si>
-  <si>
-    <t>Extended Part</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>C11,C21,C100</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>100nF 50V</t>
-  </si>
-  <si>
-    <t>YAGEO(国巨)</t>
-  </si>
-  <si>
-    <t>CS06030031</t>
-  </si>
-  <si>
-    <t>ARCOM</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>BasicPart</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>CL31A106KBHNNNE</t>
-  </si>
-  <si>
-    <t>C12,C13,C22,C23,C94,C99</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>10uF 50V</t>
-  </si>
-  <si>
-    <t>SAMSUNG(三星)</t>
-  </si>
-  <si>
-    <t>CS12060037</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>CL05B104KO5NNNC</t>
-  </si>
-  <si>
-    <t>C14,C24,C42,C43,C95</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
-    <t>100nF 16V</t>
-  </si>
-  <si>
-    <t>CS04020010</t>
-  </si>
-  <si>
-    <t>CL05A105KA5NQNC</t>
-  </si>
-  <si>
-    <t>C15,C25,C41</t>
-  </si>
-  <si>
-    <t>1uF 6V3</t>
-  </si>
-  <si>
-    <t>CS04020013</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>CL10B474KA8NNNC</t>
-  </si>
-  <si>
-    <t>C16,C26</t>
-  </si>
-  <si>
-    <t>470nF 25V</t>
-  </si>
-  <si>
-    <t>CS06030029</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>CL21B224KBFNNNE</t>
-  </si>
-  <si>
-    <t>C17,C27</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C5378</t>
-  </si>
-  <si>
-    <t>232732</t>
-  </si>
-  <si>
-    <t>0.0686</t>
-  </si>
-  <si>
-    <t>Basic Part</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>CL10A105KB8NNNC</t>
-  </si>
-  <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>1uF 35V</t>
-  </si>
-  <si>
-    <t>CS08050101</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>CL21A226MAQNNNE</t>
-  </si>
-  <si>
-    <t>C96,C97</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C45783</t>
-  </si>
-  <si>
-    <t>1066644</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>CL10C101JB8NNNC</t>
-  </si>
-  <si>
-    <t>C98</t>
-  </si>
-  <si>
-    <t>100pF</t>
-  </si>
-  <si>
-    <t>C14858</t>
-  </si>
-  <si>
-    <t>1481203</t>
-  </si>
-  <si>
-    <t>0.0174</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>CL10A106KP8NNNC</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C19702</t>
-  </si>
-  <si>
-    <t>Capacitors</t>
-  </si>
-  <si>
-    <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT</t>
-  </si>
-  <si>
-    <t>3501529</t>
-  </si>
-  <si>
-    <t>0.0366</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>USB_C</t>
-  </si>
-  <si>
-    <t>CN41</t>
-  </si>
-  <si>
-    <t>USB-C-SMD_TYPE-C-USB-18</t>
-  </si>
-  <si>
-    <t>105450-0101</t>
-  </si>
-  <si>
-    <t>MOLEX</t>
-  </si>
-  <si>
-    <t>C134092</t>
-  </si>
-  <si>
-    <t>4.37</t>
+    <t>PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>CN42</t>
+  </si>
+  <si>
+    <t>AUDIO-SMD_PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>XKBConnectivity(中国星坤)</t>
+  </si>
+  <si>
+    <t>C319105</t>
+  </si>
+  <si>
+    <t>Connectors</t>
+  </si>
+  <si>
+    <t>Audio Connectors</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>0.902</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>CN42</t>
-  </si>
-  <si>
-    <t>AUDIO-SMD_PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>XKBConnectivity(中国星坤)</t>
-  </si>
-  <si>
-    <t>C319105</t>
-  </si>
-  <si>
-    <t>Connectors</t>
-  </si>
-  <si>
-    <t>Audio Connectors</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>0.902</t>
+    <t>BAV99S,115</t>
+  </si>
+  <si>
+    <t>D40,D41</t>
+  </si>
+  <si>
+    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
+  </si>
+  <si>
+    <t>Nexperia(安世)</t>
+  </si>
+  <si>
+    <t>C96225</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>Switching Diode</t>
+  </si>
+  <si>
+    <t>6069</t>
+  </si>
+  <si>
+    <t>0.235</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>BAV99S,115</t>
-  </si>
-  <si>
-    <t>D40,D41</t>
-  </si>
-  <si>
-    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
-  </si>
-  <si>
-    <t>Nexperia(安世)</t>
-  </si>
-  <si>
-    <t>C96225</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>Switching Diode</t>
-  </si>
-  <si>
-    <t>5793</t>
-  </si>
-  <si>
-    <t>0.287</t>
+    <t>P6SMB30CA_C80384</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>SMB_L4.6-W3.6-LS5.3-BI</t>
+  </si>
+  <si>
+    <t>P6SMB30CA</t>
+  </si>
+  <si>
+    <t>Littelfuse(美国力特)</t>
+  </si>
+  <si>
+    <t>C80384</t>
+  </si>
+  <si>
+    <t>2650</t>
+  </si>
+  <si>
+    <t>1.0593</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>P6SMB30CA_C80384</t>
-  </si>
-  <si>
-    <t>D51</t>
-  </si>
-  <si>
-    <t>SMB_L4.6-W3.6-LS5.3-BI</t>
-  </si>
-  <si>
-    <t>P6SMB30CA</t>
-  </si>
-  <si>
-    <t>Littelfuse(美国力特)</t>
-  </si>
-  <si>
-    <t>C80384</t>
-  </si>
-  <si>
-    <t>2710</t>
-  </si>
-  <si>
-    <t>1.0593</t>
+    <t>BZT52C12_C173429</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>SOD-123_L2.7-W1.6-LS3.7-RD</t>
+  </si>
+  <si>
+    <t>BZT52C12</t>
+  </si>
+  <si>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>C173429</t>
+  </si>
+  <si>
+    <t>288766</t>
+  </si>
+  <si>
+    <t>0.0766</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>BZT52C12_C173429</t>
-  </si>
-  <si>
-    <t>D52</t>
-  </si>
-  <si>
-    <t>SOD-123_L2.7-W1.6-LS3.7-RD</t>
-  </si>
-  <si>
-    <t>DSSOD12315</t>
+    <t>RB751V40T1G</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
+  </si>
+  <si>
+    <t>ONSemicon</t>
+  </si>
+  <si>
+    <t>C154819</t>
+  </si>
+  <si>
+    <t>18753</t>
+  </si>
+  <si>
+    <t>0.268</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>RB751V40T1G</t>
-  </si>
-  <si>
-    <t>D53</t>
-  </si>
-  <si>
-    <t>SOD-323_L1.8-W1.3-LS2.5-RD</t>
-  </si>
-  <si>
-    <t>ONSemicon</t>
-  </si>
-  <si>
-    <t>C154819</t>
-  </si>
-  <si>
-    <t>4084</t>
-  </si>
-  <si>
-    <t>0.262</t>
+    <t>SMD1812P300SLR/24</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F1812</t>
+  </si>
+  <si>
+    <t>PTTC(PolytronicsTech)</t>
+  </si>
+  <si>
+    <t>C2892380</t>
+  </si>
+  <si>
+    <t>3710</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>Extend</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>SMD1812P300SLR/24</t>
-  </si>
-  <si>
-    <t>F51</t>
-  </si>
-  <si>
-    <t>F1812</t>
-  </si>
-  <si>
-    <t>PTTC(PolytronicsTech)</t>
-  </si>
-  <si>
-    <t>C2892380</t>
-  </si>
-  <si>
-    <t>5030</t>
-  </si>
-  <si>
-    <t>3.69</t>
-  </si>
-  <si>
-    <t>Extend</t>
+    <t>U.FL-R-SMT-1(80)_C88374</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>RF-SMD_FRF05002-JSS103M</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)</t>
+  </si>
+  <si>
+    <t>HRS(广濑)</t>
+  </si>
+  <si>
+    <t>C88374</t>
+  </si>
+  <si>
+    <t>RF Connectors / Coaxial Connectors</t>
+  </si>
+  <si>
+    <t>260982</t>
+  </si>
+  <si>
+    <t>0.557</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>U.FL-R-SMT-1(80)_C88374</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>RF-SMD_FRF05002-JSS103M</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)</t>
-  </si>
-  <si>
-    <t>HRS(广濑)</t>
-  </si>
-  <si>
-    <t>C88374</t>
-  </si>
-  <si>
-    <t>RF Connectors / Coaxial Connectors</t>
-  </si>
-  <si>
-    <t>997</t>
-  </si>
-  <si>
-    <t>0.547</t>
+    <t>LQW18AN47NJ00D</t>
+  </si>
+  <si>
+    <t>L41</t>
+  </si>
+  <si>
+    <t>IND-SMD_L1.6-W0.8-1</t>
+  </si>
+  <si>
+    <t>47nH</t>
+  </si>
+  <si>
+    <t>muRata(村田)</t>
+  </si>
+  <si>
+    <t>C98077</t>
+  </si>
+  <si>
+    <t>Inductors/Coils/Transformers</t>
+  </si>
+  <si>
+    <t>Power Inductors</t>
+  </si>
+  <si>
+    <t>3232</t>
+  </si>
+  <si>
+    <t>0.285</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>LQW18AN47NJ00D</t>
-  </si>
-  <si>
-    <t>L41</t>
-  </si>
-  <si>
-    <t>IND-SMD_L1.6-W0.8-1</t>
-  </si>
-  <si>
-    <t>47nH</t>
-  </si>
-  <si>
-    <t>muRata(村田)</t>
-  </si>
-  <si>
-    <t>C98077</t>
-  </si>
-  <si>
-    <t>Inductors/Coils/Transformers</t>
-  </si>
-  <si>
-    <t>Power Inductors</t>
-  </si>
-  <si>
-    <t>4547</t>
-  </si>
-  <si>
-    <t>0.293</t>
+    <t>1277AS-H-4R7M=P2_C237389</t>
+  </si>
+  <si>
+    <t>L42</t>
+  </si>
+  <si>
+    <t>L1210</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>1277AS-H-4R7M=P2</t>
+  </si>
+  <si>
+    <t>C237389</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
+    <t>0.657</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>1277AS-H-4R7M=P2_C237389</t>
-  </si>
-  <si>
-    <t>L42</t>
-  </si>
-  <si>
-    <t>L1210</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
-  </si>
-  <si>
-    <t>1277AS-H-4R7M=P2</t>
-  </si>
-  <si>
-    <t>SS12100005</t>
+    <t>KT-0603W</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED0603-R-RD_WHITE</t>
+  </si>
+  <si>
+    <t>KENTO</t>
+  </si>
+  <si>
+    <t>C2290</t>
+  </si>
+  <si>
+    <t>841421</t>
+  </si>
+  <si>
+    <t>0.0676</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>KT-0603W</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>LED0603-R-RD_WHITE</t>
-  </si>
-  <si>
-    <t>KENTO</t>
-  </si>
-  <si>
-    <t>C2290</t>
-  </si>
-  <si>
-    <t>597240</t>
-  </si>
-  <si>
-    <t>0.0668</t>
+    <t>KT-0603R</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED0603-RD</t>
+  </si>
+  <si>
+    <t>C2286</t>
+  </si>
+  <si>
+    <t>2784576</t>
+  </si>
+  <si>
+    <t>0.0352</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>KT-0603R</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>LED0603-RD</t>
-  </si>
-  <si>
-    <t>C2286</t>
-  </si>
-  <si>
-    <t>2740945</t>
-  </si>
-  <si>
-    <t>0.0349</t>
+    <t>TMC2660-PA</t>
+  </si>
+  <si>
+    <t>M1,M2</t>
+  </si>
+  <si>
+    <t>PQFP44_WITH_PADS</t>
+  </si>
+  <si>
+    <t>TMC2660C-PA-T</t>
+  </si>
+  <si>
+    <t>C2927052</t>
+  </si>
+  <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>34.49</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>TMC2660-PA</t>
-  </si>
-  <si>
-    <t>M1,M2</t>
-  </si>
-  <si>
-    <t>PQFP44_WITH_PADS</t>
-  </si>
-  <si>
-    <t>TMC2660C-PA-T</t>
-  </si>
-  <si>
-    <t>C2927052</t>
-  </si>
-  <si>
-    <t>1858</t>
-  </si>
-  <si>
-    <t>38.42</t>
+    <t>SMTSO3030CTJ</t>
+  </si>
+  <si>
+    <t>M41</t>
+  </si>
+  <si>
+    <t>SMD_BD5.6-D4.1</t>
+  </si>
+  <si>
+    <t>Sinhoo(雄和远景)</t>
+  </si>
+  <si>
+    <t>C2915308</t>
+  </si>
+  <si>
+    <t>Plot M.2</t>
+  </si>
+  <si>
+    <t>Hardware Fasteners/Seals</t>
+  </si>
+  <si>
+    <t>Nuts</t>
+  </si>
+  <si>
+    <t>5764</t>
+  </si>
+  <si>
+    <t>0.342</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>SMTSO3030CTJ</t>
-  </si>
-  <si>
-    <t>M41</t>
-  </si>
-  <si>
-    <t>SMD_BD5.6-D4.1</t>
-  </si>
-  <si>
-    <t>Sinhoo(雄和远景)</t>
-  </si>
-  <si>
-    <t>C2915308</t>
-  </si>
-  <si>
-    <t>Plot M.2</t>
-  </si>
-  <si>
-    <t>Hardware Fasteners/Seals</t>
-  </si>
-  <si>
-    <t>Nuts</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>0.342</t>
+    <t>DB125-3.5-4P-GN-S</t>
+  </si>
+  <si>
+    <t>MOT1,MOT2</t>
+  </si>
+  <si>
+    <t>CONN-TH_DB125-3.5-4P-GN</t>
+  </si>
+  <si>
+    <t>DIBO(地博电气)</t>
+  </si>
+  <si>
+    <t>C2757925</t>
+  </si>
+  <si>
+    <t>DEC/ALT,RA/AZ</t>
+  </si>
+  <si>
+    <t>Screw terminal</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>2.0969</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>DB125-3.5-4P-GN-S</t>
-  </si>
-  <si>
-    <t>MOT1,MOT2</t>
-  </si>
-  <si>
-    <t>CONN-TH_DB125-3.5-4P-GN</t>
-  </si>
-  <si>
-    <t>DIBO(地博电气)</t>
-  </si>
-  <si>
-    <t>C2757925</t>
-  </si>
-  <si>
-    <t>DEC/ALT,RA/AZ</t>
-  </si>
-  <si>
-    <t>Screw terminal</t>
-  </si>
-  <si>
-    <t>7238</t>
-  </si>
-  <si>
-    <t>2.0969</t>
+    <t>DMP3013SFV-7</t>
+  </si>
+  <si>
+    <t>Q51,Q52</t>
+  </si>
+  <si>
+    <t>POWERPAK-1212-8_L3.1-W3.1-P0.65-LS3.3-BL</t>
+  </si>
+  <si>
+    <t>DIODES(美台)</t>
+  </si>
+  <si>
+    <t>C264098</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>2.189</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>DMP3013SFV-7</t>
-  </si>
-  <si>
-    <t>Q51,Q52</t>
-  </si>
-  <si>
-    <t>POWERPAK-1212-8_L3.1-W3.1-P0.65-LS3.3-BL</t>
-  </si>
-  <si>
-    <t>DIODES(美台)</t>
-  </si>
-  <si>
-    <t>C264098</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>2.28</t>
+    <t>0603WAF100JT5E</t>
+  </si>
+  <si>
+    <t>R11,R13,R21,R23</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>10Ω</t>
+  </si>
+  <si>
+    <t>UNI-ROYAL(厚声)</t>
+  </si>
+  <si>
+    <t>C22859</t>
+  </si>
+  <si>
+    <t>8060544</t>
+  </si>
+  <si>
+    <t>0.00564</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>0603WAF100JT5E</t>
-  </si>
-  <si>
-    <t>R11,R13,R21,R23</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>10R</t>
-  </si>
-  <si>
-    <t>UNI-ROYAL(厚声)</t>
-  </si>
-  <si>
-    <t>BS06030128</t>
+    <t>RTT12R075FTP</t>
+  </si>
+  <si>
+    <t>R12,R14,R22,R24</t>
+  </si>
+  <si>
+    <t>R1210</t>
+  </si>
+  <si>
+    <t>75mΩ</t>
+  </si>
+  <si>
+    <t>RALEC(旺诠)</t>
+  </si>
+  <si>
+    <t>C333258</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>Chip Resistor - Surface Mount</t>
+  </si>
+  <si>
+    <t>4573</t>
+  </si>
+  <si>
+    <t>0.112</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>RTT12R075FTP</t>
-  </si>
-  <si>
-    <t>R12,R14,R22,R24</t>
-  </si>
-  <si>
-    <t>R1210</t>
-  </si>
-  <si>
-    <t>75mΩ</t>
-  </si>
-  <si>
-    <t>RALEC(旺诠)</t>
-  </si>
-  <si>
-    <t>C333258</t>
-  </si>
-  <si>
-    <t>Resistors</t>
-  </si>
-  <si>
-    <t>Chip Resistor - Surface Mount</t>
-  </si>
-  <si>
-    <t>4573</t>
-  </si>
-  <si>
-    <t>0.112</t>
+    <t>0402WGF220JTCE</t>
+  </si>
+  <si>
+    <t>R41,R42</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>22Ω</t>
+  </si>
+  <si>
+    <t>C25092</t>
+  </si>
+  <si>
+    <t>718515</t>
+  </si>
+  <si>
+    <t>0.00327</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>0402WGF220JTCE</t>
-  </si>
-  <si>
-    <t>R41,R42</t>
-  </si>
-  <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>21R5</t>
-  </si>
-  <si>
-    <t>BS04020009</t>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>R43,R44</t>
+  </si>
+  <si>
+    <t>5.1kΩ</t>
+  </si>
+  <si>
+    <t>C23186</t>
+  </si>
+  <si>
+    <t>5506013</t>
+  </si>
+  <si>
+    <t>0.0062</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>0603WAF5101T5E</t>
-  </si>
-  <si>
-    <t>R43,R44</t>
-  </si>
-  <si>
-    <t>5.1kΩ</t>
-  </si>
-  <si>
-    <t>C23186</t>
-  </si>
-  <si>
-    <t>4473575</t>
-  </si>
-  <si>
-    <t>0.00622</t>
+    <t>0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>R45,R51,R54</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>C25744</t>
+  </si>
+  <si>
+    <t>7194378</t>
+  </si>
+  <si>
+    <t>0.00316</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>R45,R51,R54</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>BS04020005</t>
+    <t>0603WAF3303T5E</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>330kΩ</t>
+  </si>
+  <si>
+    <t>C23137</t>
+  </si>
+  <si>
+    <t>515703</t>
+  </si>
+  <si>
+    <t>0.00617</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>0603WAF3303T5E</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>330kΩ</t>
-  </si>
-  <si>
-    <t>C23137</t>
-  </si>
-  <si>
-    <t>708380</t>
-  </si>
-  <si>
-    <t>0.00619</t>
+    <t>0603WAF1003T5E</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>C25803</t>
+  </si>
+  <si>
+    <t>8510301</t>
+  </si>
+  <si>
+    <t>0.00614</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>0603WAF1003T5E</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
-  </si>
-  <si>
-    <t>C25803</t>
-  </si>
-  <si>
-    <t>5754794</t>
-  </si>
-  <si>
-    <t>0.00614</t>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>R57,R58</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>C21190</t>
+  </si>
+  <si>
+    <t>16847257</t>
+  </si>
+  <si>
+    <t>0.00623</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>R57,R58</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>BS04020004</t>
+    <t>0603WAF3001T5E</t>
+  </si>
+  <si>
+    <t>R62,R64,R66,R68</t>
+  </si>
+  <si>
+    <t>3kΩ</t>
+  </si>
+  <si>
+    <t>C4211</t>
+  </si>
+  <si>
+    <t>2548456</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>0603WAF3001T5E</t>
-  </si>
-  <si>
-    <t>R62,R64,R66,R68</t>
-  </si>
-  <si>
-    <t>3kΩ</t>
-  </si>
-  <si>
-    <t>C4211</t>
-  </si>
-  <si>
-    <t>3458073</t>
+    <t>0603WAF1501T5E</t>
+  </si>
+  <si>
+    <t>R63,R65,R67,R69</t>
+  </si>
+  <si>
+    <t>1.5kΩ</t>
+  </si>
+  <si>
+    <t>C22843</t>
+  </si>
+  <si>
+    <t>1745980</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>0603WAF1501T5E</t>
-  </si>
-  <si>
-    <t>R63,R65,R67,R69</t>
-  </si>
-  <si>
-    <t>1.5kΩ</t>
-  </si>
-  <si>
-    <t>C22843</t>
-  </si>
-  <si>
-    <t>1201976</t>
-  </si>
-  <si>
-    <t>0.00615</t>
+    <t>0603WAF1802T5E</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>18kΩ</t>
+  </si>
+  <si>
+    <t>C25810</t>
+  </si>
+  <si>
+    <t>906798</t>
+  </si>
+  <si>
+    <t>0.00613</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>0603WAF1802T5E</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>18kΩ</t>
-  </si>
-  <si>
-    <t>C25810</t>
-  </si>
-  <si>
-    <t>232545</t>
-  </si>
-  <si>
-    <t>0.00613</t>
+    <t>0603WAF5602T5E</t>
+  </si>
+  <si>
+    <t>R71</t>
+  </si>
+  <si>
+    <t>56kΩ</t>
+  </si>
+  <si>
+    <t>C23206</t>
+  </si>
+  <si>
+    <t>758628</t>
+  </si>
+  <si>
+    <t>0.00669</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>0603WAF5602T5E</t>
-  </si>
-  <si>
-    <t>R71</t>
-  </si>
-  <si>
-    <t>56kΩ</t>
-  </si>
-  <si>
-    <t>C23206</t>
-  </si>
-  <si>
-    <t>426146</t>
-  </si>
-  <si>
-    <t>0.00671</t>
+    <t>MICROMOD-Teensy4</t>
+  </si>
+  <si>
+    <t>U40</t>
+  </si>
+  <si>
+    <t>M.2-CONNECTOR-E</t>
+  </si>
+  <si>
+    <t>AS0BC21-S48BE-7H</t>
+  </si>
+  <si>
+    <t>Foxconn</t>
+  </si>
+  <si>
+    <t>C2761457</t>
+  </si>
+  <si>
+    <t>6.47</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>MICROMOD-Teensy4</t>
-  </si>
-  <si>
-    <t>U40</t>
-  </si>
-  <si>
-    <t>M.2-CONNECTOR-E</t>
-  </si>
-  <si>
-    <t>AS0BC21-S48BE-7H</t>
-  </si>
-  <si>
-    <t>Foxconn</t>
-  </si>
-  <si>
-    <t>C2761457</t>
-  </si>
-  <si>
-    <t>6.47</t>
+    <t>ATGM336H-5N31</t>
+  </si>
+  <si>
+    <t>U41</t>
+  </si>
+  <si>
+    <t>GPSM-SMD_ATGM336H-TR</t>
+  </si>
+  <si>
+    <t>杭州中科微</t>
+  </si>
+  <si>
+    <t>C90770</t>
+  </si>
+  <si>
+    <t>IoT/Communication Modules</t>
+  </si>
+  <si>
+    <t>Satellite Positioning Modules</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>18.69</t>
   </si>
   <si>
     <t>42</t>
   </si>
   <si>
-    <t>ATGM336H-5N31</t>
-  </si>
-  <si>
-    <t>U41</t>
-  </si>
-  <si>
-    <t>GPSM-SMD_ATGM336H-TR</t>
-  </si>
-  <si>
-    <t>杭州中科微</t>
-  </si>
-  <si>
-    <t>C90770</t>
-  </si>
-  <si>
-    <t>IoT/Communication Modules</t>
-  </si>
-  <si>
-    <t>Satellite Positioning Modules</t>
-  </si>
-  <si>
-    <t>4310</t>
-  </si>
-  <si>
-    <t>18.69</t>
+    <t>AP63200WU-7</t>
+  </si>
+  <si>
+    <t>U55</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>C2071868</t>
+  </si>
+  <si>
+    <t>4436</t>
+  </si>
+  <si>
+    <t>2.066</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>AP63200WU-7</t>
-  </si>
-  <si>
-    <t>U55</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>ISTSOT2601</t>
+    <t>XC6701D502PR-G</t>
+  </si>
+  <si>
+    <t>U56</t>
+  </si>
+  <si>
+    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
+  </si>
+  <si>
+    <t>TOREX(特瑞仕)</t>
+  </si>
+  <si>
+    <t>C3013660</t>
   </si>
   <si>
     <t>Power Supply Chip</t>
-  </si>
-  <si>
-    <t>DC-DC Converters</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>XC6701D502PR-G</t>
-  </si>
-  <si>
-    <t>U56</t>
-  </si>
-  <si>
-    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
-  </si>
-  <si>
-    <t>TOREX(特瑞仕)</t>
-  </si>
-  <si>
-    <t>C3013660</t>
   </si>
   <si>
     <t>Linear Voltage Regulators (LDO)</t>
@@ -1485,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1552,40 +1591,40 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
@@ -1602,7 +1641,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -1629,19 +1668,19 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -1655,7 +1694,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -1682,714 +1721,714 @@
         <v>47</v>
       </c>
       <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>55</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
         <v>56</v>
       </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="P5" t="s">
         <v>57</v>
       </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" t="s">
-        <v>21</v>
-      </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
         <v>62</v>
       </c>
-      <c r="F6" t="s">
+      <c r="P6" t="s">
         <v>63</v>
       </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" t="s">
-        <v>21</v>
-      </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>67</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>49</v>
-      </c>
       <c r="P7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
         <v>87</v>
       </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q11" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q12" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q13" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" t="s">
         <v>116</v>
-      </c>
-      <c r="I14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="Q15" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>27</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q16" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P17" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q17" t="s">
         <v>30</v>
@@ -2397,264 +2436,264 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="Q18" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O19" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="Q19" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="N20" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Q20" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H21" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q21" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q22" t="s">
         <v>30</v>
@@ -2662,476 +2701,476 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="I23" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="O23" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="P23" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="Q23" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H24" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N24" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O24" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q24" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="H25" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N25" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O25" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="P25" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="Q25" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H26" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="I26" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="N26" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="Q26" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H27" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="O27" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="P27" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="Q27" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="M28" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="N28" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P28" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="Q28" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="H29" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O29" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="Q29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="H30" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="O30" t="s">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="P30" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="Q30" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="D31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>275</v>
+      </c>
+      <c r="H31" t="s">
         <v>259</v>
       </c>
-      <c r="E31" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" t="s">
-        <v>261</v>
-      </c>
-      <c r="G31" t="s">
-        <v>258</v>
-      </c>
-      <c r="H31" t="s">
-        <v>262</v>
-      </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="N31" t="s">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="O31" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="Q31" t="s">
         <v>40</v>
@@ -3139,635 +3178,635 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N32" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O32" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
       <c r="Q32" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H33" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N33" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O33" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="P33" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q33" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N34" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O34" t="s">
-        <v>49</v>
+        <v>301</v>
       </c>
       <c r="P34" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="Q34" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="E35" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N35" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O35" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="P35" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="Q35" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="E36" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="G36" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="H36" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I36" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N36" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O36" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P36" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Q36" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="D37" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E37" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F37" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G37" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="H37" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I37" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s">
-        <v>21</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="P37" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="Q37" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="D38" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="H38" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>326</v>
+      </c>
+      <c r="M38" t="s">
+        <v>270</v>
+      </c>
+      <c r="N38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O38" t="s">
+        <v>328</v>
+      </c>
+      <c r="P38" t="s">
         <v>309</v>
       </c>
-      <c r="J38" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" t="s">
-        <v>308</v>
-      </c>
-      <c r="M38" t="s">
-        <v>264</v>
-      </c>
-      <c r="N38" t="s">
-        <v>265</v>
-      </c>
-      <c r="O38" t="s">
-        <v>310</v>
-      </c>
-      <c r="P38" t="s">
-        <v>299</v>
-      </c>
       <c r="Q38" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="D39" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="F39" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="G39" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="H39" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I39" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="J39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L39" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="M39" t="s">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="N39" t="s">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="O39" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="P39" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="Q39" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="D40" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="E40" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="G40" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I40" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N40" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O40" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="P40" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="Q40" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D41" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>347</v>
       </c>
       <c r="F41" t="s">
-        <v>328</v>
+        <v>27</v>
       </c>
       <c r="G41" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="I41" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O41" t="s">
-        <v>330</v>
+        <v>51</v>
       </c>
       <c r="P41" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="Q41" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="D42" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E42" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G42" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H42" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L42" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s">
-        <v>21</v>
+        <v>358</v>
       </c>
       <c r="N42" t="s">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>360</v>
       </c>
       <c r="P42" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="Q42" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="D43" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="E43" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="H43" t="s">
-        <v>344</v>
+        <v>250</v>
       </c>
       <c r="I43" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L43" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s">
-        <v>346</v>
+        <v>27</v>
       </c>
       <c r="N43" t="s">
-        <v>347</v>
+        <v>27</v>
       </c>
       <c r="O43" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="P43" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="Q43" t="s">
         <v>30</v>
@@ -3775,113 +3814,60 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="D44" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="E44" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="H44" t="s">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="I44" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="K44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="N44" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="O44" t="s">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="P44" t="s">
-        <v>21</v>
+        <v>378</v>
       </c>
       <c r="Q44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>357</v>
-      </c>
-      <c r="B45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" t="s">
-        <v>358</v>
-      </c>
-      <c r="D45" t="s">
-        <v>359</v>
-      </c>
-      <c r="E45" t="s">
-        <v>360</v>
-      </c>
-      <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>358</v>
-      </c>
-      <c r="H45" t="s">
-        <v>361</v>
-      </c>
-      <c r="I45" t="s">
-        <v>362</v>
-      </c>
-      <c r="J45" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" t="s">
-        <v>358</v>
-      </c>
-      <c r="M45" t="s">
-        <v>355</v>
-      </c>
-      <c r="N45" t="s">
-        <v>363</v>
-      </c>
-      <c r="O45" t="s">
-        <v>364</v>
-      </c>
-      <c r="P45" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__4_BOM.xlsx
+++ b/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__4_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="369">
   <si>
     <t>No.</t>
   </si>
@@ -127,7 +127,7 @@
     <t>C14663</t>
   </si>
   <si>
-    <t>43337143</t>
+    <t>43336101</t>
   </si>
   <si>
     <t>0.014</t>
@@ -181,7 +181,7 @@
     <t>C1525</t>
   </si>
   <si>
-    <t>24459228</t>
+    <t>24458708</t>
   </si>
   <si>
     <t>0.00736</t>
@@ -199,7 +199,7 @@
     <t>C52923</t>
   </si>
   <si>
-    <t>4835064</t>
+    <t>4835019</t>
   </si>
   <si>
     <t>0.0206</t>
@@ -241,7 +241,7 @@
     <t>C5378</t>
   </si>
   <si>
-    <t>389300</t>
+    <t>389295</t>
   </si>
   <si>
     <t>0.0686</t>
@@ -259,7 +259,7 @@
     <t>C28323</t>
   </si>
   <si>
-    <t>4606281</t>
+    <t>4606191</t>
   </si>
   <si>
     <t>0.0587</t>
@@ -280,7 +280,7 @@
     <t>C45783</t>
   </si>
   <si>
-    <t>5024398</t>
+    <t>5024378</t>
   </si>
   <si>
     <t>0.154</t>
@@ -301,7 +301,7 @@
     <t>C14858</t>
   </si>
   <si>
-    <t>2182664</t>
+    <t>2182644</t>
   </si>
   <si>
     <t>0.0174</t>
@@ -325,7 +325,7 @@
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT</t>
   </si>
   <si>
-    <t>5121681</t>
+    <t>5121161</t>
   </si>
   <si>
     <t>0.0366</t>
@@ -553,7 +553,7 @@
     <t>RF Connectors / Coaxial Connectors</t>
   </si>
   <si>
-    <t>260982</t>
+    <t>260880</t>
   </si>
   <si>
     <t>0.557</t>
@@ -724,403 +724,373 @@
     <t>26</t>
   </si>
   <si>
-    <t>DB125-3.5-4P-GN-S</t>
-  </si>
-  <si>
-    <t>MOT1,MOT2</t>
-  </si>
-  <si>
-    <t>CONN-TH_DB125-3.5-4P-GN</t>
-  </si>
-  <si>
-    <t>DIBO(地博电气)</t>
-  </si>
-  <si>
-    <t>C2757925</t>
-  </si>
-  <si>
-    <t>DEC/ALT,RA/AZ</t>
-  </si>
-  <si>
-    <t>Screw terminal</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>2.0969</t>
+    <t>DMP3013SFV-7</t>
+  </si>
+  <si>
+    <t>Q51,Q52</t>
+  </si>
+  <si>
+    <t>POWERPAK-1212-8_L3.1-W3.1-P0.65-LS3.3-BL</t>
+  </si>
+  <si>
+    <t>DIODES(美台)</t>
+  </si>
+  <si>
+    <t>C264098</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>2.189</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>DMP3013SFV-7</t>
-  </si>
-  <si>
-    <t>Q51,Q52</t>
-  </si>
-  <si>
-    <t>POWERPAK-1212-8_L3.1-W3.1-P0.65-LS3.3-BL</t>
-  </si>
-  <si>
-    <t>DIODES(美台)</t>
-  </si>
-  <si>
-    <t>C264098</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>2.189</t>
+    <t>0603WAF100JT5E</t>
+  </si>
+  <si>
+    <t>R11,R13,R21,R23</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>10Ω</t>
+  </si>
+  <si>
+    <t>UNI-ROYAL(厚声)</t>
+  </si>
+  <si>
+    <t>C22859</t>
+  </si>
+  <si>
+    <t>8060544</t>
+  </si>
+  <si>
+    <t>0.00564</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>0603WAF100JT5E</t>
-  </si>
-  <si>
-    <t>R11,R13,R21,R23</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>10Ω</t>
-  </si>
-  <si>
-    <t>UNI-ROYAL(厚声)</t>
-  </si>
-  <si>
-    <t>C22859</t>
-  </si>
-  <si>
-    <t>8060544</t>
-  </si>
-  <si>
-    <t>0.00564</t>
+    <t>RTT12R075FTP</t>
+  </si>
+  <si>
+    <t>R12,R14,R22,R24</t>
+  </si>
+  <si>
+    <t>R1210</t>
+  </si>
+  <si>
+    <t>75mΩ</t>
+  </si>
+  <si>
+    <t>RALEC(旺诠)</t>
+  </si>
+  <si>
+    <t>C333258</t>
+  </si>
+  <si>
+    <t>Resistors</t>
+  </si>
+  <si>
+    <t>Chip Resistor - Surface Mount</t>
+  </si>
+  <si>
+    <t>4573</t>
+  </si>
+  <si>
+    <t>0.112</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>RTT12R075FTP</t>
-  </si>
-  <si>
-    <t>R12,R14,R22,R24</t>
-  </si>
-  <si>
-    <t>R1210</t>
-  </si>
-  <si>
-    <t>75mΩ</t>
-  </si>
-  <si>
-    <t>RALEC(旺诠)</t>
-  </si>
-  <si>
-    <t>C333258</t>
-  </si>
-  <si>
-    <t>Resistors</t>
-  </si>
-  <si>
-    <t>Chip Resistor - Surface Mount</t>
-  </si>
-  <si>
-    <t>4573</t>
-  </si>
-  <si>
-    <t>0.112</t>
+    <t>0402WGF220JTCE</t>
+  </si>
+  <si>
+    <t>R41,R42</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>22Ω</t>
+  </si>
+  <si>
+    <t>C25092</t>
+  </si>
+  <si>
+    <t>718515</t>
+  </si>
+  <si>
+    <t>0.00327</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>0402WGF220JTCE</t>
-  </si>
-  <si>
-    <t>R41,R42</t>
-  </si>
-  <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>22Ω</t>
-  </si>
-  <si>
-    <t>C25092</t>
-  </si>
-  <si>
-    <t>718515</t>
-  </si>
-  <si>
-    <t>0.00327</t>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>R43,R44</t>
+  </si>
+  <si>
+    <t>5.1kΩ</t>
+  </si>
+  <si>
+    <t>C23186</t>
+  </si>
+  <si>
+    <t>5505991</t>
+  </si>
+  <si>
+    <t>0.0062</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>0603WAF5101T5E</t>
-  </si>
-  <si>
-    <t>R43,R44</t>
-  </si>
-  <si>
-    <t>5.1kΩ</t>
-  </si>
-  <si>
-    <t>C23186</t>
-  </si>
-  <si>
-    <t>5506013</t>
-  </si>
-  <si>
-    <t>0.0062</t>
+    <t>0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>R45,R51,R54</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>C25744</t>
+  </si>
+  <si>
+    <t>7194133</t>
+  </si>
+  <si>
+    <t>0.00316</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>R45,R51,R54</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>C25744</t>
-  </si>
-  <si>
-    <t>7194378</t>
-  </si>
-  <si>
-    <t>0.00316</t>
+    <t>0603WAF3303T5E</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>330kΩ</t>
+  </si>
+  <si>
+    <t>C23137</t>
+  </si>
+  <si>
+    <t>515703</t>
+  </si>
+  <si>
+    <t>0.00617</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>0603WAF3303T5E</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>330kΩ</t>
-  </si>
-  <si>
-    <t>C23137</t>
-  </si>
-  <si>
-    <t>515703</t>
-  </si>
-  <si>
-    <t>0.00617</t>
+    <t>0603WAF1003T5E</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>C25803</t>
+  </si>
+  <si>
+    <t>8510185</t>
+  </si>
+  <si>
+    <t>0.00614</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>0603WAF1003T5E</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
-  </si>
-  <si>
-    <t>C25803</t>
-  </si>
-  <si>
-    <t>8510301</t>
-  </si>
-  <si>
-    <t>0.00614</t>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>R57,R58</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>C21190</t>
+  </si>
+  <si>
+    <t>16847102</t>
+  </si>
+  <si>
+    <t>0.00623</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>R57,R58</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>C21190</t>
-  </si>
-  <si>
-    <t>16847257</t>
-  </si>
-  <si>
-    <t>0.00623</t>
+    <t>0603WAF3001T5E</t>
+  </si>
+  <si>
+    <t>R62,R64,R66,R68</t>
+  </si>
+  <si>
+    <t>3kΩ</t>
+  </si>
+  <si>
+    <t>C4211</t>
+  </si>
+  <si>
+    <t>2548452</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>0603WAF3001T5E</t>
-  </si>
-  <si>
-    <t>R62,R64,R66,R68</t>
-  </si>
-  <si>
-    <t>3kΩ</t>
-  </si>
-  <si>
-    <t>C4211</t>
-  </si>
-  <si>
-    <t>2548456</t>
+    <t>0603WAF1501T5E</t>
+  </si>
+  <si>
+    <t>R63,R65,R67,R69</t>
+  </si>
+  <si>
+    <t>1.5kΩ</t>
+  </si>
+  <si>
+    <t>C22843</t>
+  </si>
+  <si>
+    <t>1745980</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>0603WAF1501T5E</t>
-  </si>
-  <si>
-    <t>R63,R65,R67,R69</t>
-  </si>
-  <si>
-    <t>1.5kΩ</t>
-  </si>
-  <si>
-    <t>C22843</t>
-  </si>
-  <si>
-    <t>1745980</t>
+    <t>0603WAF1802T5E</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>18kΩ</t>
+  </si>
+  <si>
+    <t>C25810</t>
+  </si>
+  <si>
+    <t>906798</t>
+  </si>
+  <si>
+    <t>0.00613</t>
   </si>
   <si>
     <t>38</t>
   </si>
   <si>
-    <t>0603WAF1802T5E</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>R0805</t>
-  </si>
-  <si>
-    <t>18kΩ</t>
-  </si>
-  <si>
-    <t>C25810</t>
-  </si>
-  <si>
-    <t>906798</t>
-  </si>
-  <si>
-    <t>0.00613</t>
+    <t>0603WAF5602T5E</t>
+  </si>
+  <si>
+    <t>R71</t>
+  </si>
+  <si>
+    <t>56kΩ</t>
+  </si>
+  <si>
+    <t>C23206</t>
+  </si>
+  <si>
+    <t>758628</t>
+  </si>
+  <si>
+    <t>0.00669</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>0603WAF5602T5E</t>
-  </si>
-  <si>
-    <t>R71</t>
-  </si>
-  <si>
-    <t>56kΩ</t>
-  </si>
-  <si>
-    <t>C23206</t>
-  </si>
-  <si>
-    <t>758628</t>
-  </si>
-  <si>
-    <t>0.00669</t>
+    <t>MICROMOD-Teensy4</t>
+  </si>
+  <si>
+    <t>U40</t>
+  </si>
+  <si>
+    <t>M.2-CONNECTOR-E</t>
+  </si>
+  <si>
+    <t>AS0BC21-S48BE-7H</t>
+  </si>
+  <si>
+    <t>Foxconn</t>
+  </si>
+  <si>
+    <t>C2761457</t>
+  </si>
+  <si>
+    <t>6.47</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>MICROMOD-Teensy4</t>
-  </si>
-  <si>
-    <t>U40</t>
-  </si>
-  <si>
-    <t>M.2-CONNECTOR-E</t>
-  </si>
-  <si>
-    <t>AS0BC21-S48BE-7H</t>
-  </si>
-  <si>
-    <t>Foxconn</t>
-  </si>
-  <si>
-    <t>C2761457</t>
-  </si>
-  <si>
-    <t>6.47</t>
+    <t>ATGM336H-5N31</t>
+  </si>
+  <si>
+    <t>U41</t>
+  </si>
+  <si>
+    <t>GPSM-SMD_ATGM336H-TR</t>
+  </si>
+  <si>
+    <t>杭州中科微</t>
+  </si>
+  <si>
+    <t>C90770</t>
+  </si>
+  <si>
+    <t>IoT/Communication Modules</t>
+  </si>
+  <si>
+    <t>Satellite Positioning Modules</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>18.69</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>ATGM336H-5N31</t>
-  </si>
-  <si>
-    <t>U41</t>
-  </si>
-  <si>
-    <t>GPSM-SMD_ATGM336H-TR</t>
-  </si>
-  <si>
-    <t>杭州中科微</t>
-  </si>
-  <si>
-    <t>C90770</t>
-  </si>
-  <si>
-    <t>IoT/Communication Modules</t>
-  </si>
-  <si>
-    <t>Satellite Positioning Modules</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>18.69</t>
+    <t>AP63200WU-7</t>
+  </si>
+  <si>
+    <t>U55</t>
+  </si>
+  <si>
+    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
+  </si>
+  <si>
+    <t>C2071868</t>
+  </si>
+  <si>
+    <t>4436</t>
+  </si>
+  <si>
+    <t>2.066</t>
   </si>
   <si>
     <t>42</t>
-  </si>
-  <si>
-    <t>AP63200WU-7</t>
-  </si>
-  <si>
-    <t>U55</t>
-  </si>
-  <si>
-    <t>SOT-23-6_L2.9-W1.6-P0.95-LS2.8-BR</t>
-  </si>
-  <si>
-    <t>C2071868</t>
-  </si>
-  <si>
-    <t>4436</t>
-  </si>
-  <si>
-    <t>2.066</t>
-  </si>
-  <si>
-    <t>43</t>
   </si>
   <si>
     <t>XC6701D502PR-G</t>
@@ -1524,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -2946,19 +2916,19 @@
         <v>26</v>
       </c>
       <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
         <v>242</v>
       </c>
-      <c r="M27" t="s">
-        <v>123</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>243</v>
-      </c>
-      <c r="O27" t="s">
-        <v>244</v>
-      </c>
-      <c r="P27" t="s">
-        <v>245</v>
       </c>
       <c r="Q27" t="s">
         <v>116</v>
@@ -2966,134 +2936,134 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" t="s">
         <v>246</v>
       </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>247</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>248</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" t="s">
         <v>249</v>
       </c>
-      <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>247</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>250</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" t="s">
         <v>251</v>
       </c>
-      <c r="J28" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>252</v>
       </c>
-      <c r="P28" t="s">
-        <v>253</v>
-      </c>
       <c r="Q28" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
       <c r="C29" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" t="s">
         <v>255</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>256</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>257</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" t="s">
         <v>258</v>
       </c>
-      <c r="G29" t="s">
-        <v>255</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>259</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" t="s">
         <v>260</v>
       </c>
-      <c r="J29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" t="s">
-        <v>258</v>
-      </c>
-      <c r="M29" t="s">
-        <v>27</v>
-      </c>
       <c r="N29" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q29" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
         <v>265</v>
       </c>
-      <c r="E30" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" t="s">
-        <v>267</v>
-      </c>
-      <c r="G30" t="s">
-        <v>264</v>
-      </c>
       <c r="H30" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="I30" t="s">
         <v>269</v>
@@ -3105,72 +3075,72 @@
         <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
         <v>270</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>271</v>
       </c>
-      <c r="O30" t="s">
-        <v>272</v>
-      </c>
-      <c r="P30" t="s">
-        <v>273</v>
-      </c>
       <c r="Q30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F31" t="s">
         <v>275</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
+        <v>273</v>
+      </c>
+      <c r="H31" t="s">
+        <v>249</v>
+      </c>
+      <c r="I31" t="s">
         <v>276</v>
       </c>
-      <c r="E31" t="s">
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
         <v>277</v>
       </c>
-      <c r="F31" t="s">
+      <c r="P31" t="s">
         <v>278</v>
-      </c>
-      <c r="G31" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" t="s">
-        <v>259</v>
-      </c>
-      <c r="I31" t="s">
-        <v>279</v>
-      </c>
-      <c r="J31" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" t="s">
-        <v>278</v>
-      </c>
-      <c r="M31" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" t="s">
-        <v>27</v>
-      </c>
-      <c r="O31" t="s">
-        <v>280</v>
-      </c>
-      <c r="P31" t="s">
-        <v>281</v>
       </c>
       <c r="Q31" t="s">
         <v>40</v>
@@ -3178,52 +3148,52 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" t="s">
         <v>282</v>
       </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="G32" t="s">
+        <v>280</v>
+      </c>
+      <c r="H32" t="s">
+        <v>249</v>
+      </c>
+      <c r="I32" t="s">
         <v>283</v>
       </c>
-      <c r="D32" t="s">
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" t="s">
         <v>284</v>
       </c>
-      <c r="E32" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="P32" t="s">
         <v>285</v>
-      </c>
-      <c r="G32" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" t="s">
-        <v>259</v>
-      </c>
-      <c r="I32" t="s">
-        <v>286</v>
-      </c>
-      <c r="J32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" t="s">
-        <v>285</v>
-      </c>
-      <c r="M32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" t="s">
-        <v>287</v>
-      </c>
-      <c r="P32" t="s">
-        <v>288</v>
       </c>
       <c r="Q32" t="s">
         <v>40</v>
@@ -3231,52 +3201,52 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" t="s">
         <v>289</v>
       </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
+        <v>287</v>
+      </c>
+      <c r="H33" t="s">
+        <v>249</v>
+      </c>
+      <c r="I33" t="s">
         <v>290</v>
       </c>
-      <c r="D33" t="s">
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>289</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
         <v>291</v>
       </c>
-      <c r="E33" t="s">
-        <v>277</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="P33" t="s">
         <v>292</v>
-      </c>
-      <c r="G33" t="s">
-        <v>290</v>
-      </c>
-      <c r="H33" t="s">
-        <v>259</v>
-      </c>
-      <c r="I33" t="s">
-        <v>293</v>
-      </c>
-      <c r="J33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" t="s">
-        <v>292</v>
-      </c>
-      <c r="M33" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" t="s">
-        <v>294</v>
-      </c>
-      <c r="P33" t="s">
-        <v>295</v>
       </c>
       <c r="Q33" t="s">
         <v>40</v>
@@ -3284,52 +3254,52 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" t="s">
+        <v>295</v>
+      </c>
+      <c r="E34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" t="s">
+        <v>294</v>
+      </c>
+      <c r="H34" t="s">
+        <v>249</v>
+      </c>
+      <c r="I34" t="s">
         <v>297</v>
       </c>
-      <c r="D34" t="s">
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>296</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
         <v>298</v>
       </c>
-      <c r="E34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="P34" t="s">
         <v>299</v>
-      </c>
-      <c r="G34" t="s">
-        <v>297</v>
-      </c>
-      <c r="H34" t="s">
-        <v>259</v>
-      </c>
-      <c r="I34" t="s">
-        <v>300</v>
-      </c>
-      <c r="J34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" t="s">
-        <v>299</v>
-      </c>
-      <c r="M34" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" t="s">
-        <v>301</v>
-      </c>
-      <c r="P34" t="s">
-        <v>302</v>
       </c>
       <c r="Q34" t="s">
         <v>40</v>
@@ -3337,52 +3307,52 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>300</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" t="s">
+        <v>302</v>
+      </c>
+      <c r="E35" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" t="s">
         <v>303</v>
       </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="G35" t="s">
+        <v>301</v>
+      </c>
+      <c r="H35" t="s">
+        <v>249</v>
+      </c>
+      <c r="I35" t="s">
         <v>304</v>
       </c>
-      <c r="D35" t="s">
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>303</v>
+      </c>
+      <c r="M35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
         <v>305</v>
       </c>
-      <c r="E35" t="s">
-        <v>257</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="P35" t="s">
         <v>306</v>
-      </c>
-      <c r="G35" t="s">
-        <v>304</v>
-      </c>
-      <c r="H35" t="s">
-        <v>259</v>
-      </c>
-      <c r="I35" t="s">
-        <v>307</v>
-      </c>
-      <c r="J35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" t="s">
-        <v>306</v>
-      </c>
-      <c r="M35" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" t="s">
-        <v>27</v>
-      </c>
-      <c r="O35" t="s">
-        <v>308</v>
-      </c>
-      <c r="P35" t="s">
-        <v>309</v>
       </c>
       <c r="Q35" t="s">
         <v>40</v>
@@ -3390,105 +3360,105 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>307</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" t="s">
         <v>310</v>
       </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="G36" t="s">
+        <v>308</v>
+      </c>
+      <c r="H36" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36" t="s">
         <v>311</v>
       </c>
-      <c r="D36" t="s">
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" t="s">
+        <v>260</v>
+      </c>
+      <c r="N36" t="s">
+        <v>261</v>
+      </c>
+      <c r="O36" t="s">
         <v>312</v>
       </c>
-      <c r="E36" t="s">
-        <v>257</v>
-      </c>
-      <c r="F36" t="s">
-        <v>313</v>
-      </c>
-      <c r="G36" t="s">
-        <v>311</v>
-      </c>
-      <c r="H36" t="s">
-        <v>259</v>
-      </c>
-      <c r="I36" t="s">
-        <v>314</v>
-      </c>
-      <c r="J36" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" t="s">
-        <v>313</v>
-      </c>
-      <c r="M36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" t="s">
-        <v>315</v>
-      </c>
       <c r="P36" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="Q36" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
       </c>
       <c r="C37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" t="s">
+        <v>247</v>
+      </c>
+      <c r="F37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" t="s">
+        <v>314</v>
+      </c>
+      <c r="H37" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="s">
+        <v>260</v>
+      </c>
+      <c r="N37" t="s">
+        <v>261</v>
+      </c>
+      <c r="O37" t="s">
         <v>318</v>
       </c>
-      <c r="D37" t="s">
-        <v>319</v>
-      </c>
-      <c r="E37" t="s">
-        <v>257</v>
-      </c>
-      <c r="F37" t="s">
-        <v>320</v>
-      </c>
-      <c r="G37" t="s">
-        <v>318</v>
-      </c>
-      <c r="H37" t="s">
-        <v>259</v>
-      </c>
-      <c r="I37" t="s">
-        <v>321</v>
-      </c>
-      <c r="J37" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" t="s">
-        <v>320</v>
-      </c>
-      <c r="M37" t="s">
-        <v>270</v>
-      </c>
-      <c r="N37" t="s">
-        <v>271</v>
-      </c>
-      <c r="O37" t="s">
-        <v>322</v>
-      </c>
       <c r="P37" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="Q37" t="s">
         <v>106</v>
@@ -3496,105 +3466,105 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38" t="s">
+        <v>322</v>
+      </c>
+      <c r="F38" t="s">
         <v>323</v>
       </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
+        <v>320</v>
+      </c>
+      <c r="H38" t="s">
+        <v>249</v>
+      </c>
+      <c r="I38" t="s">
         <v>324</v>
       </c>
-      <c r="D38" t="s">
+      <c r="J38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" t="s">
         <v>325</v>
       </c>
-      <c r="E38" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="P38" t="s">
         <v>326</v>
       </c>
-      <c r="G38" t="s">
-        <v>324</v>
-      </c>
-      <c r="H38" t="s">
-        <v>259</v>
-      </c>
-      <c r="I38" t="s">
-        <v>327</v>
-      </c>
-      <c r="J38" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" t="s">
-        <v>326</v>
-      </c>
-      <c r="M38" t="s">
-        <v>270</v>
-      </c>
-      <c r="N38" t="s">
-        <v>271</v>
-      </c>
-      <c r="O38" t="s">
-        <v>328</v>
-      </c>
-      <c r="P38" t="s">
-        <v>309</v>
-      </c>
       <c r="Q38" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" t="s">
+        <v>247</v>
+      </c>
+      <c r="F39" t="s">
         <v>330</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" t="s">
         <v>331</v>
       </c>
-      <c r="E39" t="s">
+      <c r="J39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" t="s">
         <v>332</v>
       </c>
-      <c r="F39" t="s">
+      <c r="P39" t="s">
         <v>333</v>
-      </c>
-      <c r="G39" t="s">
-        <v>330</v>
-      </c>
-      <c r="H39" t="s">
-        <v>259</v>
-      </c>
-      <c r="I39" t="s">
-        <v>334</v>
-      </c>
-      <c r="J39" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" t="s">
-        <v>333</v>
-      </c>
-      <c r="M39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" t="s">
-        <v>27</v>
-      </c>
-      <c r="O39" t="s">
-        <v>335</v>
-      </c>
-      <c r="P39" t="s">
-        <v>336</v>
       </c>
       <c r="Q39" t="s">
         <v>40</v>
@@ -3602,108 +3572,108 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D40" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E40" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="F40" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="G40" t="s">
         <v>338</v>
       </c>
       <c r="H40" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="I40" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" t="s">
+        <v>51</v>
+      </c>
+      <c r="P40" t="s">
         <v>341</v>
       </c>
-      <c r="J40" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" t="s">
-        <v>340</v>
-      </c>
-      <c r="M40" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" t="s">
-        <v>342</v>
-      </c>
-      <c r="P40" t="s">
-        <v>343</v>
-      </c>
       <c r="Q40" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" t="s">
+        <v>344</v>
+      </c>
+      <c r="E41" t="s">
         <v>345</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>343</v>
+      </c>
+      <c r="H41" t="s">
         <v>346</v>
       </c>
-      <c r="E41" t="s">
+      <c r="I41" t="s">
         <v>347</v>
       </c>
-      <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="s">
         <v>348</v>
       </c>
-      <c r="H41" t="s">
+      <c r="N41" t="s">
         <v>349</v>
       </c>
-      <c r="I41" t="s">
+      <c r="O41" t="s">
         <v>350</v>
-      </c>
-      <c r="J41" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" t="s">
-        <v>345</v>
-      </c>
-      <c r="M41" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" t="s">
-        <v>51</v>
       </c>
       <c r="P41" t="s">
         <v>351</v>
       </c>
       <c r="Q41" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -3729,10 +3699,10 @@
         <v>353</v>
       </c>
       <c r="H42" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" t="s">
         <v>356</v>
-      </c>
-      <c r="I42" t="s">
-        <v>357</v>
       </c>
       <c r="J42" t="s">
         <v>25</v>
@@ -3744,63 +3714,63 @@
         <v>353</v>
       </c>
       <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>27</v>
+      </c>
+      <c r="O42" t="s">
+        <v>357</v>
+      </c>
+      <c r="P42" t="s">
         <v>358</v>
       </c>
-      <c r="N42" t="s">
-        <v>359</v>
-      </c>
-      <c r="O42" t="s">
-        <v>360</v>
-      </c>
-      <c r="P42" t="s">
-        <v>361</v>
-      </c>
       <c r="Q42" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" t="s">
+        <v>361</v>
+      </c>
+      <c r="E43" t="s">
+        <v>362</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>360</v>
+      </c>
+      <c r="H43" t="s">
         <v>363</v>
       </c>
-      <c r="D43" t="s">
+      <c r="I43" t="s">
         <v>364</v>
       </c>
-      <c r="E43" t="s">
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+      <c r="M43" t="s">
         <v>365</v>
       </c>
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>363</v>
-      </c>
-      <c r="H43" t="s">
-        <v>250</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="N43" t="s">
         <v>366</v>
-      </c>
-      <c r="J43" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43" t="s">
-        <v>363</v>
-      </c>
-      <c r="M43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" t="s">
-        <v>27</v>
       </c>
       <c r="O43" t="s">
         <v>367</v>
@@ -3809,64 +3779,11 @@
         <v>368</v>
       </c>
       <c r="Q43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>369</v>
-      </c>
-      <c r="B44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" t="s">
-        <v>371</v>
-      </c>
-      <c r="E44" t="s">
-        <v>372</v>
-      </c>
-      <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>370</v>
-      </c>
-      <c r="H44" t="s">
-        <v>373</v>
-      </c>
-      <c r="I44" t="s">
-        <v>374</v>
-      </c>
-      <c r="J44" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L44" t="s">
-        <v>370</v>
-      </c>
-      <c r="M44" t="s">
-        <v>375</v>
-      </c>
-      <c r="N44" t="s">
-        <v>376</v>
-      </c>
-      <c r="O44" t="s">
-        <v>377</v>
-      </c>
-      <c r="P44" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
         <v>27</v>
       </c>
     </row>

--- a/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__4_BOM.xlsx
+++ b/1_Main_board/TeenAstro_Redux__Main_Board_v2.6.4__4_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="443">
   <si>
     <t>No.</t>
   </si>
@@ -67,9 +67,93 @@
     <t>1</t>
   </si>
   <si>
+    <t>BWGNSCNX20-20W4</t>
+  </si>
+  <si>
+    <t>ANT1</t>
+  </si>
+  <si>
+    <t>ANT-TH_BWGNSCNX20-20W4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>BATWIRELESS(蝙蝠无线)</t>
+  </si>
+  <si>
+    <t>C784396</t>
+  </si>
+  <si>
+    <t>LCSC</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Radio Frequency Chip/Antenna</t>
+  </si>
+  <si>
+    <t>Antennas</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>ExtendedPart</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>HEAD2</t>
+  </si>
+  <si>
+    <t>AUX1,IN1</t>
+  </si>
+  <si>
+    <t>HDR-TH_2P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>C9900010030</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CR1220-2</t>
+  </si>
+  <si>
+    <t>B51</t>
+  </si>
+  <si>
+    <t>BAT-SMD_CR1220-2</t>
+  </si>
+  <si>
+    <t>Q&amp;J</t>
+  </si>
+  <si>
+    <t>C70381</t>
+  </si>
+  <si>
+    <t>ML1220</t>
+  </si>
+  <si>
+    <t>22491</t>
+  </si>
+  <si>
+    <t>1.378</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>EEEHAV101XAP</t>
   </si>
   <si>
@@ -88,15 +172,9 @@
     <t>C336789</t>
   </si>
   <si>
-    <t>LCSC</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>303</t>
   </si>
   <si>
@@ -106,7 +184,7 @@
     <t>Extended Part</t>
   </si>
   <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -127,7 +205,7 @@
     <t>C14663</t>
   </si>
   <si>
-    <t>43336101</t>
+    <t>43333778</t>
   </si>
   <si>
     <t>0.014</t>
@@ -157,16 +235,13 @@
     <t>C13585</t>
   </si>
   <si>
-    <t>5013905</t>
+    <t>5013499</t>
   </si>
   <si>
     <t>0.212</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>7</t>
   </si>
   <si>
     <t>CL05B104KO5NNNC</t>
@@ -181,12 +256,15 @@
     <t>C1525</t>
   </si>
   <si>
-    <t>24458708</t>
+    <t>24458664</t>
   </si>
   <si>
     <t>0.00736</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>CL05A105KA5NQNC</t>
   </si>
   <si>
@@ -199,12 +277,15 @@
     <t>C52923</t>
   </si>
   <si>
-    <t>4835019</t>
+    <t>4834989</t>
   </si>
   <si>
     <t>0.0206</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>CL10B474KA8NNNC</t>
   </si>
   <si>
@@ -223,7 +304,7 @@
     <t>0.0457</t>
   </si>
   <si>
-    <t>7</t>
+    <t>10</t>
   </si>
   <si>
     <t>CL21B224KBFNNNE</t>
@@ -247,7 +328,7 @@
     <t>0.0686</t>
   </si>
   <si>
-    <t>8</t>
+    <t>11</t>
   </si>
   <si>
     <t>CL21B105KBFNNNE</t>
@@ -259,13 +340,13 @@
     <t>C28323</t>
   </si>
   <si>
-    <t>4606191</t>
+    <t>4605396</t>
   </si>
   <si>
     <t>0.0587</t>
   </si>
   <si>
-    <t>9</t>
+    <t>12</t>
   </si>
   <si>
     <t>CL21A226MAQNNNE</t>
@@ -286,7 +367,7 @@
     <t>0.154</t>
   </si>
   <si>
-    <t>10</t>
+    <t>13</t>
   </si>
   <si>
     <t>CL10C101JB8NNNC</t>
@@ -301,13 +382,13 @@
     <t>C14858</t>
   </si>
   <si>
-    <t>2182644</t>
+    <t>2182624</t>
   </si>
   <si>
     <t>0.0174</t>
   </si>
   <si>
-    <t>11</t>
+    <t>14</t>
   </si>
   <si>
     <t>CL10A106KP8NNNC</t>
@@ -325,7 +406,7 @@
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT</t>
   </si>
   <si>
-    <t>5121161</t>
+    <t>5121073</t>
   </si>
   <si>
     <t>0.0366</t>
@@ -334,7 +415,7 @@
     <t>BasicPart</t>
   </si>
   <si>
-    <t>12</t>
+    <t>15</t>
   </si>
   <si>
     <t>USB_C</t>
@@ -361,10 +442,7 @@
     <t>4.43</t>
   </si>
   <si>
-    <t>ExtendedPart</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>16</t>
   </si>
   <si>
     <t>PJ-327E-SMT</t>
@@ -394,7 +472,7 @@
     <t>0.902</t>
   </si>
   <si>
-    <t>14</t>
+    <t>17</t>
   </si>
   <si>
     <t>BAV99S,115</t>
@@ -424,7 +502,7 @@
     <t>0.235</t>
   </si>
   <si>
-    <t>15</t>
+    <t>18</t>
   </si>
   <si>
     <t>P6SMB30CA_C80384</t>
@@ -451,7 +529,7 @@
     <t>1.0593</t>
   </si>
   <si>
-    <t>16</t>
+    <t>19</t>
   </si>
   <si>
     <t>BZT52C12_C173429</t>
@@ -478,7 +556,7 @@
     <t>0.0766</t>
   </si>
   <si>
-    <t>17</t>
+    <t>20</t>
   </si>
   <si>
     <t>RB751V40T1G</t>
@@ -502,7 +580,34 @@
     <t>0.268</t>
   </si>
   <si>
-    <t>18</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>DC005-T25</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>DC-IN-TH_DC-005-20A-1</t>
+  </si>
+  <si>
+    <t>SOFNG(硕方)</t>
+  </si>
+  <si>
+    <t>C111573</t>
+  </si>
+  <si>
+    <t>AC/DC Power Connectors</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>SMD1812P300SLR/24</t>
@@ -529,7 +634,34 @@
     <t>Extend</t>
   </si>
   <si>
-    <t>19</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>DZ254R-22-08-63</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>HDR-TH_8P-P2.54-V-M-R2-C4-S2.54</t>
+  </si>
+  <si>
+    <t>DEALON(德艺隆)</t>
+  </si>
+  <si>
+    <t>C2935919</t>
+  </si>
+  <si>
+    <t>Pin Headers</t>
+  </si>
+  <si>
+    <t>1375</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>U.FL-R-SMT-1(80)_C88374</t>
@@ -559,7 +691,7 @@
     <t>0.557</t>
   </si>
   <si>
-    <t>20</t>
+    <t>25</t>
   </si>
   <si>
     <t>LQW18AN47NJ00D</t>
@@ -592,7 +724,7 @@
     <t>0.285</t>
   </si>
   <si>
-    <t>21</t>
+    <t>26</t>
   </si>
   <si>
     <t>1277AS-H-4R7M=P2_C237389</t>
@@ -619,7 +751,7 @@
     <t>0.657</t>
   </si>
   <si>
-    <t>22</t>
+    <t>27</t>
   </si>
   <si>
     <t>KT-0603W</t>
@@ -643,7 +775,7 @@
     <t>0.0676</t>
   </si>
   <si>
-    <t>23</t>
+    <t>28</t>
   </si>
   <si>
     <t>KT-0603R</t>
@@ -658,13 +790,13 @@
     <t>C2286</t>
   </si>
   <si>
-    <t>2784576</t>
+    <t>2784554</t>
   </si>
   <si>
     <t>0.0352</t>
   </si>
   <si>
-    <t>24</t>
+    <t>29</t>
   </si>
   <si>
     <t>TMC2660-PA</t>
@@ -688,7 +820,7 @@
     <t>34.49</t>
   </si>
   <si>
-    <t>25</t>
+    <t>30</t>
   </si>
   <si>
     <t>SMTSO3030CTJ</t>
@@ -721,7 +853,61 @@
     <t>0.342</t>
   </si>
   <si>
-    <t>26</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>DB125-3.5-4P-GN-S</t>
+  </si>
+  <si>
+    <t>MOT1,MOT2</t>
+  </si>
+  <si>
+    <t>CONN-TH_DB125-3.5-4P-GN</t>
+  </si>
+  <si>
+    <t>DIBO(地博电气)</t>
+  </si>
+  <si>
+    <t>C2757925</t>
+  </si>
+  <si>
+    <t>DEC/ALT,RA/AZ</t>
+  </si>
+  <si>
+    <t>Screw terminal</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>2.0969</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Power_Switch</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Power_switch</t>
+  </si>
+  <si>
+    <t>4US1R102M7RN</t>
+  </si>
+  <si>
+    <t>MULTICOMP PRO</t>
+  </si>
+  <si>
+    <t>1550227</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>DMP3013SFV-7</t>
@@ -745,7 +931,7 @@
     <t>2.189</t>
   </si>
   <si>
-    <t>27</t>
+    <t>34</t>
   </si>
   <si>
     <t>0603WAF100JT5E</t>
@@ -772,7 +958,7 @@
     <t>0.00564</t>
   </si>
   <si>
-    <t>28</t>
+    <t>35</t>
   </si>
   <si>
     <t>RTT12R075FTP</t>
@@ -805,7 +991,7 @@
     <t>0.112</t>
   </si>
   <si>
-    <t>29</t>
+    <t>36</t>
   </si>
   <si>
     <t>0402WGF220JTCE</t>
@@ -829,7 +1015,7 @@
     <t>0.00327</t>
   </si>
   <si>
-    <t>30</t>
+    <t>37</t>
   </si>
   <si>
     <t>0603WAF5101T5E</t>
@@ -844,13 +1030,13 @@
     <t>C23186</t>
   </si>
   <si>
-    <t>5505991</t>
+    <t>5506077</t>
   </si>
   <si>
     <t>0.0062</t>
   </si>
   <si>
-    <t>31</t>
+    <t>38</t>
   </si>
   <si>
     <t>0402WGF1002TCE</t>
@@ -865,13 +1051,13 @@
     <t>C25744</t>
   </si>
   <si>
-    <t>7194133</t>
+    <t>7193948</t>
   </si>
   <si>
     <t>0.00316</t>
   </si>
   <si>
-    <t>32</t>
+    <t>39</t>
   </si>
   <si>
     <t>0603WAF3303T5E</t>
@@ -886,13 +1072,13 @@
     <t>C23137</t>
   </si>
   <si>
-    <t>515703</t>
+    <t>515603</t>
   </si>
   <si>
     <t>0.00617</t>
   </si>
   <si>
-    <t>33</t>
+    <t>40</t>
   </si>
   <si>
     <t>0603WAF1003T5E</t>
@@ -907,13 +1093,13 @@
     <t>C25803</t>
   </si>
   <si>
-    <t>8510185</t>
+    <t>8509941</t>
   </si>
   <si>
     <t>0.00614</t>
   </si>
   <si>
-    <t>34</t>
+    <t>41</t>
   </si>
   <si>
     <t>0603WAF1001T5E</t>
@@ -928,13 +1114,13 @@
     <t>C21190</t>
   </si>
   <si>
-    <t>16847102</t>
+    <t>16846816</t>
   </si>
   <si>
     <t>0.00623</t>
   </si>
   <si>
-    <t>35</t>
+    <t>42</t>
   </si>
   <si>
     <t>0603WAF3001T5E</t>
@@ -949,10 +1135,10 @@
     <t>C4211</t>
   </si>
   <si>
-    <t>2548452</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>2548562</t>
+  </si>
+  <si>
+    <t>43</t>
   </si>
   <si>
     <t>0603WAF1501T5E</t>
@@ -967,10 +1153,10 @@
     <t>C22843</t>
   </si>
   <si>
-    <t>1745980</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>1745888</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>0603WAF1802T5E</t>
@@ -994,7 +1180,7 @@
     <t>0.00613</t>
   </si>
   <si>
-    <t>38</t>
+    <t>45</t>
   </si>
   <si>
     <t>0603WAF5602T5E</t>
@@ -1009,13 +1195,13 @@
     <t>C23206</t>
   </si>
   <si>
-    <t>758628</t>
+    <t>758528</t>
   </si>
   <si>
     <t>0.00669</t>
   </si>
   <si>
-    <t>39</t>
+    <t>46</t>
   </si>
   <si>
     <t>MICROMOD-Teensy4</t>
@@ -1039,7 +1225,7 @@
     <t>6.47</t>
   </si>
   <si>
-    <t>40</t>
+    <t>47</t>
   </si>
   <si>
     <t>ATGM336H-5N31</t>
@@ -1069,7 +1255,43 @@
     <t>18.69</t>
   </si>
   <si>
-    <t>41</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>ESP-01</t>
+  </si>
+  <si>
+    <t>U52</t>
+  </si>
+  <si>
+    <t>WIFIM-TH_8P-L24.7-W14.4-P2.54</t>
+  </si>
+  <si>
+    <t>2.4GHz</t>
+  </si>
+  <si>
+    <t>ESP-01S</t>
+  </si>
+  <si>
+    <t>Ai-Thinker(安信可)</t>
+  </si>
+  <si>
+    <t>C503581</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>WiFi Modules</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>AP63200WU-7</t>
@@ -1090,7 +1312,7 @@
     <t>2.066</t>
   </si>
   <si>
-    <t>42</t>
+    <t>50</t>
   </si>
   <si>
     <t>XC6701D502PR-G</t>
@@ -1494,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1561,40 +1783,40 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
@@ -1611,7 +1833,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -1626,154 +1848,154 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="P4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="P5" t="s">
         <v>55</v>
       </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>56</v>
-      </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>58</v>
@@ -1782,623 +2004,623 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
         <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" t="s">
         <v>61</v>
       </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>60</v>
-      </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q6" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
         <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Q9" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
         <v>100</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q12" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>118</v>
-      </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
         <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>124</v>
       </c>
-      <c r="O14" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" t="s">
-        <v>126</v>
-      </c>
       <c r="Q14" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
         <v>127</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
         <v>128</v>
       </c>
-      <c r="D15" t="s">
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" t="s">
         <v>129</v>
       </c>
-      <c r="E15" t="s">
+      <c r="N15" t="s">
         <v>130</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="O15" t="s">
         <v>131</v>
       </c>
-      <c r="I15" t="s">
+      <c r="P15" t="s">
         <v>132</v>
       </c>
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>128</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
         <v>133</v>
-      </c>
-      <c r="N15" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
         <v>138</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>139</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>140</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" t="s">
         <v>141</v>
       </c>
-      <c r="H16" t="s">
+      <c r="P16" t="s">
         <v>142</v>
       </c>
-      <c r="I16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P16" t="s">
-        <v>145</v>
-      </c>
       <c r="Q16" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" t="s">
         <v>147</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" t="s">
         <v>148</v>
       </c>
-      <c r="E17" t="s">
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="s">
         <v>149</v>
       </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="N17" t="s">
         <v>150</v>
       </c>
-      <c r="H17" t="s">
+      <c r="O17" t="s">
         <v>151</v>
       </c>
-      <c r="I17" t="s">
+      <c r="P17" t="s">
         <v>152</v>
-      </c>
-      <c r="J17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>150</v>
-      </c>
-      <c r="M17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" t="s">
-        <v>153</v>
-      </c>
-      <c r="P17" t="s">
-        <v>154</v>
       </c>
       <c r="Q17" t="s">
         <v>30</v>
@@ -2406,46 +2628,46 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" t="s">
         <v>155</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>156</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" t="s">
         <v>157</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>158</v>
       </c>
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="s">
         <v>159</v>
       </c>
-      <c r="I18" t="s">
+      <c r="N18" t="s">
         <v>160</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>156</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
       </c>
       <c r="O18" t="s">
         <v>161</v>
@@ -2454,7 +2676,7 @@
         <v>162</v>
       </c>
       <c r="Q18" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2474,40 +2696,40 @@
         <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q19" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2527,7 +2749,7 @@
         <v>175</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
         <v>176</v>
@@ -2539,131 +2761,131 @@
         <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L20" t="s">
         <v>176</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
         <v>179</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>180</v>
       </c>
-      <c r="P20" t="s">
-        <v>181</v>
-      </c>
       <c r="Q20" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" t="s">
         <v>183</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>184</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" t="s">
         <v>185</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>186</v>
       </c>
-      <c r="G21" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
         <v>187</v>
       </c>
-      <c r="I21" t="s">
+      <c r="P21" t="s">
         <v>188</v>
       </c>
-      <c r="J21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" t="s">
-        <v>186</v>
-      </c>
-      <c r="M21" t="s">
-        <v>189</v>
-      </c>
-      <c r="N21" t="s">
-        <v>190</v>
-      </c>
-      <c r="O21" t="s">
-        <v>191</v>
-      </c>
-      <c r="P21" t="s">
-        <v>192</v>
-      </c>
       <c r="Q21" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" t="s">
         <v>194</v>
       </c>
-      <c r="D22" t="s">
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" t="s">
         <v>195</v>
       </c>
-      <c r="E22" t="s">
+      <c r="O22" t="s">
         <v>196</v>
       </c>
-      <c r="F22" t="s">
+      <c r="P22" t="s">
         <v>197</v>
-      </c>
-      <c r="G22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" t="s">
-        <v>187</v>
-      </c>
-      <c r="I22" t="s">
-        <v>199</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>197</v>
-      </c>
-      <c r="M22" t="s">
-        <v>189</v>
-      </c>
-      <c r="N22" t="s">
-        <v>190</v>
-      </c>
-      <c r="O22" t="s">
-        <v>200</v>
-      </c>
-      <c r="P22" t="s">
-        <v>201</v>
       </c>
       <c r="Q22" t="s">
         <v>30</v>
@@ -2671,131 +2893,131 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" t="s">
         <v>203</v>
       </c>
-      <c r="D23" t="s">
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
         <v>204</v>
       </c>
-      <c r="E23" t="s">
+      <c r="P23" t="s">
         <v>205</v>
       </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>203</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="Q23" t="s">
         <v>206</v>
-      </c>
-      <c r="I23" t="s">
-        <v>207</v>
-      </c>
-      <c r="J23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" t="s">
-        <v>203</v>
-      </c>
-      <c r="M23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" t="s">
-        <v>208</v>
-      </c>
-      <c r="P23" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" t="s">
         <v>211</v>
       </c>
-      <c r="D24" t="s">
+      <c r="I24" t="s">
         <v>212</v>
       </c>
-      <c r="E24" t="s">
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" t="s">
         <v>213</v>
       </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>211</v>
-      </c>
-      <c r="H24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="O24" t="s">
         <v>214</v>
       </c>
-      <c r="J24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" t="s">
-        <v>211</v>
-      </c>
-      <c r="M24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>215</v>
       </c>
-      <c r="P24" t="s">
-        <v>216</v>
-      </c>
       <c r="Q24" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
         <v>217</v>
       </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>218</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>219</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
         <v>220</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>221</v>
       </c>
       <c r="H25" t="s">
         <v>221</v>
@@ -2804,987 +3026,1411 @@
         <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="N25" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q25" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
         <v>227</v>
       </c>
-      <c r="E26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>226</v>
-      </c>
       <c r="H26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" t="s">
         <v>230</v>
       </c>
-      <c r="J26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" t="s">
-        <v>231</v>
-      </c>
       <c r="M26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q26" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H27" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" t="s">
         <v>241</v>
       </c>
-      <c r="J27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" t="s">
-        <v>27</v>
-      </c>
       <c r="M27" t="s">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="N27" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q27" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
         <v>247</v>
       </c>
-      <c r="F28" t="s">
-        <v>248</v>
-      </c>
-      <c r="G28" t="s">
-        <v>245</v>
-      </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q28" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
         <v>255</v>
       </c>
-      <c r="E29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F29" t="s">
-        <v>257</v>
-      </c>
-      <c r="G29" t="s">
-        <v>254</v>
-      </c>
       <c r="H29" t="s">
+        <v>250</v>
+      </c>
+      <c r="I29" t="s">
         <v>258</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
         <v>259</v>
       </c>
-      <c r="J29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" t="s">
-        <v>257</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>260</v>
       </c>
-      <c r="N29" t="s">
-        <v>261</v>
-      </c>
-      <c r="O29" t="s">
-        <v>262</v>
-      </c>
-      <c r="P29" t="s">
-        <v>263</v>
-      </c>
       <c r="Q29" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" t="s">
         <v>264</v>
       </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" t="s">
-        <v>266</v>
-      </c>
-      <c r="E30" t="s">
-        <v>267</v>
-      </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
         <v>265</v>
       </c>
       <c r="H30" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>267</v>
+      </c>
+      <c r="P30" t="s">
         <v>268</v>
       </c>
-      <c r="M30" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" t="s">
-        <v>270</v>
-      </c>
-      <c r="P30" t="s">
-        <v>271</v>
-      </c>
       <c r="Q30" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" t="s">
         <v>272</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>270</v>
+      </c>
+      <c r="H31" t="s">
         <v>273</v>
       </c>
-      <c r="D31" t="s">
+      <c r="I31" t="s">
         <v>274</v>
       </c>
-      <c r="E31" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" t="s">
-        <v>275</v>
-      </c>
-      <c r="G31" t="s">
-        <v>273</v>
-      </c>
-      <c r="H31" t="s">
-        <v>249</v>
-      </c>
-      <c r="I31" t="s">
-        <v>276</v>
-      </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L31" t="s">
         <v>275</v>
       </c>
       <c r="M31" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q31" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s">
+        <v>282</v>
+      </c>
+      <c r="E32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="E32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F32" t="s">
-        <v>282</v>
-      </c>
-      <c r="G32" t="s">
-        <v>280</v>
-      </c>
       <c r="H32" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="I32" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
         <v>25</v>
       </c>
-      <c r="K32" t="s">
-        <v>26</v>
-      </c>
       <c r="L32" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="N32" t="s">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="O32" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P32" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q32" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E33" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
+        <v>297</v>
+      </c>
+      <c r="K33" t="s">
         <v>25</v>
       </c>
-      <c r="K33" t="s">
-        <v>26</v>
-      </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O33" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="P33" t="s">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="Q33" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D34" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E34" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H34" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="I34" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O34" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q34" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D35" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E35" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H35" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O35" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P35" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q35" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D36" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="F36" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="N36" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="O36" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="P36" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="Q36" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D37" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E37" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="H37" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="M37" t="s">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>261</v>
+        <v>21</v>
       </c>
       <c r="O37" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="P37" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="Q37" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="D38" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="E38" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H38" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L38" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="M38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O38" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="P38" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="Q38" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D39" t="s">
+        <v>343</v>
+      </c>
+      <c r="E39" t="s">
         <v>329</v>
       </c>
-      <c r="E39" t="s">
-        <v>247</v>
-      </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="J39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L39" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="M39" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N39" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O39" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="P39" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q39" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E40" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="H40" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L40" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N40" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O40" t="s">
-        <v>51</v>
+        <v>353</v>
       </c>
       <c r="P40" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="Q40" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="D41" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="H41" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="I41" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L41" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s">
-        <v>348</v>
+        <v>21</v>
       </c>
       <c r="N41" t="s">
-        <v>349</v>
+        <v>21</v>
       </c>
       <c r="O41" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P41" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="Q41" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E42" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
+        <v>365</v>
       </c>
       <c r="G42" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H42" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="I42" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L42" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N42" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O42" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="P42" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="Q42" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" t="s">
+        <v>371</v>
+      </c>
+      <c r="E43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" t="s">
+        <v>370</v>
+      </c>
+      <c r="H43" t="s">
+        <v>311</v>
+      </c>
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+      <c r="J43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" t="s">
+        <v>372</v>
+      </c>
+      <c r="M43" t="s">
+        <v>322</v>
+      </c>
+      <c r="N43" t="s">
+        <v>323</v>
+      </c>
+      <c r="O43" t="s">
+        <v>374</v>
+      </c>
+      <c r="P43" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>375</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>376</v>
+      </c>
+      <c r="D44" t="s">
+        <v>377</v>
+      </c>
+      <c r="E44" t="s">
+        <v>309</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>376</v>
+      </c>
+      <c r="H44" t="s">
+        <v>311</v>
+      </c>
+      <c r="I44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" t="s">
+        <v>378</v>
+      </c>
+      <c r="M44" t="s">
+        <v>322</v>
+      </c>
+      <c r="N44" t="s">
+        <v>323</v>
+      </c>
+      <c r="O44" t="s">
+        <v>380</v>
+      </c>
+      <c r="P44" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>381</v>
+      </c>
+      <c r="B45" t="s">
         <v>17</v>
       </c>
-      <c r="C43" t="s">
-        <v>360</v>
-      </c>
-      <c r="D43" t="s">
-        <v>361</v>
-      </c>
-      <c r="E43" t="s">
-        <v>362</v>
-      </c>
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>360</v>
-      </c>
-      <c r="H43" t="s">
-        <v>363</v>
-      </c>
-      <c r="I43" t="s">
-        <v>364</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="C45" t="s">
+        <v>382</v>
+      </c>
+      <c r="D45" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" t="s">
+        <v>385</v>
+      </c>
+      <c r="G45" t="s">
+        <v>382</v>
+      </c>
+      <c r="H45" t="s">
+        <v>311</v>
+      </c>
+      <c r="I45" t="s">
+        <v>386</v>
+      </c>
+      <c r="J45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" t="s">
+        <v>387</v>
+      </c>
+      <c r="P45" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>389</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>390</v>
+      </c>
+      <c r="D46" t="s">
+        <v>391</v>
+      </c>
+      <c r="E46" t="s">
+        <v>309</v>
+      </c>
+      <c r="F46" t="s">
+        <v>392</v>
+      </c>
+      <c r="G46" t="s">
+        <v>390</v>
+      </c>
+      <c r="H46" t="s">
+        <v>311</v>
+      </c>
+      <c r="I46" t="s">
+        <v>393</v>
+      </c>
+      <c r="J46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" t="s">
+        <v>392</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" t="s">
+        <v>394</v>
+      </c>
+      <c r="P46" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>397</v>
+      </c>
+      <c r="D47" t="s">
+        <v>398</v>
+      </c>
+      <c r="E47" t="s">
+        <v>399</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>400</v>
+      </c>
+      <c r="H47" t="s">
+        <v>401</v>
+      </c>
+      <c r="I47" t="s">
+        <v>402</v>
+      </c>
+      <c r="J47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" t="s">
+        <v>397</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" t="s">
+        <v>57</v>
+      </c>
+      <c r="P47" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>405</v>
+      </c>
+      <c r="D48" t="s">
+        <v>406</v>
+      </c>
+      <c r="E48" t="s">
+        <v>407</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>405</v>
+      </c>
+      <c r="H48" t="s">
+        <v>408</v>
+      </c>
+      <c r="I48" t="s">
+        <v>409</v>
+      </c>
+      <c r="J48" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" t="s">
+        <v>405</v>
+      </c>
+      <c r="M48" t="s">
+        <v>410</v>
+      </c>
+      <c r="N48" t="s">
+        <v>411</v>
+      </c>
+      <c r="O48" t="s">
+        <v>412</v>
+      </c>
+      <c r="P48" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" t="s">
+        <v>416</v>
+      </c>
+      <c r="E49" t="s">
+        <v>417</v>
+      </c>
+      <c r="F49" t="s">
+        <v>418</v>
+      </c>
+      <c r="G49" t="s">
+        <v>419</v>
+      </c>
+      <c r="H49" t="s">
+        <v>420</v>
+      </c>
+      <c r="I49" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" t="s">
         <v>25</v>
       </c>
-      <c r="K43" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43" t="s">
-        <v>360</v>
-      </c>
-      <c r="M43" t="s">
-        <v>365</v>
-      </c>
-      <c r="N43" t="s">
-        <v>366</v>
-      </c>
-      <c r="O43" t="s">
-        <v>367</v>
-      </c>
-      <c r="P43" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>27</v>
+      <c r="L49" t="s">
+        <v>422</v>
+      </c>
+      <c r="M49" t="s">
+        <v>410</v>
+      </c>
+      <c r="N49" t="s">
+        <v>423</v>
+      </c>
+      <c r="O49" t="s">
+        <v>424</v>
+      </c>
+      <c r="P49" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>426</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" t="s">
+        <v>428</v>
+      </c>
+      <c r="E50" t="s">
+        <v>429</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>427</v>
+      </c>
+      <c r="H50" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" t="s">
+        <v>430</v>
+      </c>
+      <c r="J50" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" t="s">
+        <v>53</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+      <c r="M50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" t="s">
+        <v>431</v>
+      </c>
+      <c r="P50" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>433</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" t="s">
+        <v>435</v>
+      </c>
+      <c r="E51" t="s">
+        <v>436</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>434</v>
+      </c>
+      <c r="H51" t="s">
+        <v>437</v>
+      </c>
+      <c r="I51" t="s">
+        <v>438</v>
+      </c>
+      <c r="J51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51" t="s">
+        <v>434</v>
+      </c>
+      <c r="M51" t="s">
+        <v>439</v>
+      </c>
+      <c r="N51" t="s">
+        <v>440</v>
+      </c>
+      <c r="O51" t="s">
+        <v>441</v>
+      </c>
+      <c r="P51" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
